--- a/StudentData/Tutorials/Unit3/3.1.5/customer_purchase_marketing_campaign.xlsx
+++ b/StudentData/Tutorials/Unit3/3.1.5/customer_purchase_marketing_campaign.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Unit 3\Tutorial 3.1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Tutorials/Unit3/3.1.5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98AD4308-5923-42DD-B991-883DD75571E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{48441D5D-E12A-47A5-B650-297FF11F1F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{1676C462-CF63-4D1E-8EAB-610827AE90C4}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{1676C462-CF63-4D1E-8EAB-610827AE90C4}"/>
   </bookViews>
   <sheets>
     <sheet name="worksheet" sheetId="1" r:id="rId1"/>
-    <sheet name="solution" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Customer ID</t>
   </si>
@@ -46,15 +45,6 @@
   </si>
   <si>
     <t>Marketing Campaign</t>
-  </si>
-  <si>
-    <t>P(Purchase)</t>
-  </si>
-  <si>
-    <t>P(Marketing Campaign)</t>
-  </si>
-  <si>
-    <t>P(Purchase &amp; Marketing Campaign)</t>
   </si>
 </sst>
 </file>
@@ -103,16 +93,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,14 +441,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.90625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="9.921875" customWidth="1"/>
+    <col min="2" max="2" width="10.61328125" customWidth="1"/>
+    <col min="3" max="3" width="11.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -483,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -494,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -505,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -516,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -527,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -538,7 +525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -549,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -560,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -571,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -580,172 +567,6 @@
       </c>
       <c r="C11" s="2">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80231351-440E-4A60-9BF2-D487A0916A54}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <f>COUNTIFS(B2:B11,1)/COUNT(A2:A11)</f>
-        <v>0.6</v>
-      </c>
-      <c r="B15">
-        <f>COUNTIFS(C2:C11,1)/COUNT(A2:A11)</f>
-        <v>0.6</v>
-      </c>
-      <c r="C15">
-        <f>COUNTIFS(B2:B11,1,C2:C11,1)/COUNT(A2:A11)</f>
-        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -1018,15 +839,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
@@ -1040,14 +852,55 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A47969D0-8DBD-49EF-B5C9-4A43531D217C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A47969D0-8DBD-49EF-B5C9-4A43531D217C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{912C5EA3-FC6F-4C8C-92BD-F76281AF47B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7759C23-1B0C-452A-90BF-F1174ABB7AFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7759C23-1B0C-452A-90BF-F1174ABB7AFA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{912C5EA3-FC6F-4C8C-92BD-F76281AF47B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" enabled="0" method="" siteId="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" removed="1"/>
+</clbl:labelList>
 </file>